--- a/biology/Zoologie/Capitophorus/Capitophorus.xlsx
+++ b/biology/Zoologie/Capitophorus/Capitophorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capitophorus est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Aphididae (pucerons).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Capitophorus archangelskii
 Capitophorus bulgaricus
